--- a/results_GNG_CLIQUE_sub-00AD.xlsx
+++ b/results_GNG_CLIQUE_sub-00AD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35970CB4-38BF-4B74-BA15-33E31F3F5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{35970CB4-38BF-4B74-BA15-33E31F3F5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B04A27-F352-4781-976B-52BC3E857B95}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_GNG_CLIQUE_sub-00AD (2)" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,32 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'results_GNG_CLIQUE_sub-00AD (2)'!$A$1:$C$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - results_GNG_CLIQUE_sub-00AD" description="Connexion à la requête « results_GNG_CLIQUE_sub-00AD » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - results_GNG_CLIQUE_sub-00AD" description="Connexion à la requête « results_GNG_CLIQUE_sub-00AD » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=results_GNG_CLIQUE_sub-00AD;Extended Properties=&quot;&quot;" command="SELECT * FROM [results_GNG_CLIQUE_sub-00AD]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Essai,GO,Rest</t>
   </si>
@@ -227,12 +239,21 @@
   </si>
   <si>
     <t>Essai30</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Moy</t>
+  </si>
+  <si>
+    <t>ET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,9 +731,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -791,7 +813,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -803,14 +825,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="results_GNG_CLIQUE_sub_00AD" displayName="results_GNG_CLIQUE_sub_00AD" ref="A1:C32" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="results_GNG_CLIQUE_sub_00AD" displayName="results_GNG_CLIQUE_sub_00AD" ref="A1:C32" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="2" uniqueName="2" name="GO" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moy" queryTableFieldId="1" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="GO" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="4" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(results_GNG_CLIQUE_sub_00AD[GO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Rest" queryTableFieldId="3" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Rest" queryTableFieldId="3" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,12 +1490,32 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B32" s="1">
         <f>AVERAGE(results_GNG_CLIQUE_sub_00AD[GO])</f>
         <v>0.83214285714285696</v>
       </c>
       <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <f>_xlfn.STDEV.P(results_GNG_CLIQUE_sub_00AD[GO])</f>
+        <v>0.22734355214729077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B33/results_GNG_CLIQUE_sub_00AD[[#Totals],[GO]]</f>
+        <v>0.27320255193665849</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
